--- a/src/main/resources/resources/TestData/com/nonobank/apps/testcase/bindcard/LoginBindCard.xlsx
+++ b/src/main/resources/resources/TestData/com/nonobank/apps/testcase/bindcard/LoginBindCard.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="103">
   <si>
     <t>flag</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -369,6 +369,66 @@
   </si>
   <si>
     <t>请输入银行卡号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${IdBankGenerator.getInvalidBankCard(CCB)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${IdBankGenerator.getInvalidBankCard(CITIC)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${IdBankGenerator.getInvalidBankCard(HXB)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${IdBankGenerator.getInvalidBankCard(GDB)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${IdBankGenerator.getInvalidBankCard(PAB)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${IdBankGenerator.getInvalidBankCard(ABC)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${IdBankGenerator.getInvalidBankCard(BOC)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${IdBankGenerator.getInvalidBankCard(CMB)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${IdBankGenerator.getInvalidBankCard(CEB)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${IdBankGenerator.getInvalidBankCard(BCOM)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${IdBankGenerator.getInvalidBankCard(CMBC)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${IdBankGenerator.getInvalidBankCard(SPDB)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${IdBankGenerator.getInvalidBankCard(ICBC)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${IdBankGenerator.getInvalidBankCard(CIB)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${IdBankGenerator.getInvalidBankCard(PSBC)}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -727,8 +787,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G21" workbookViewId="0">
-      <selection activeCell="J32" sqref="J32:J46"/>
+    <sheetView tabSelected="1" topLeftCell="F12" workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -1333,7 +1393,7 @@
         <v>9</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>65</v>
@@ -1368,7 +1428,7 @@
         <v>18</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>67</v>
+        <v>89</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>65</v>
@@ -1403,7 +1463,7 @@
         <v>29</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="I19" s="1" t="s">
         <v>65</v>
@@ -1438,7 +1498,7 @@
         <v>19</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>69</v>
+        <v>91</v>
       </c>
       <c r="I20" s="1" t="s">
         <v>65</v>
@@ -1473,7 +1533,7 @@
         <v>20</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="I21" s="1" t="s">
         <v>65</v>
@@ -1508,7 +1568,7 @@
         <v>28</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>71</v>
+        <v>93</v>
       </c>
       <c r="I22" s="1" t="s">
         <v>65</v>
@@ -1543,7 +1603,7 @@
         <v>21</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>72</v>
+        <v>94</v>
       </c>
       <c r="I23" s="1" t="s">
         <v>65</v>
@@ -1578,7 +1638,7 @@
         <v>17</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="I24" s="1" t="s">
         <v>65</v>
@@ -1613,7 +1673,7 @@
         <v>27</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="I25" s="1" t="s">
         <v>65</v>
@@ -1648,7 +1708,7 @@
         <v>22</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="I26" s="1" t="s">
         <v>65</v>
@@ -1683,7 +1743,7 @@
         <v>23</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="I27" s="1" t="s">
         <v>65</v>
@@ -1718,7 +1778,7 @@
         <v>24</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="I28" s="1" t="s">
         <v>65</v>
@@ -1753,7 +1813,7 @@
         <v>16</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="I29" s="1" t="s">
         <v>65</v>
@@ -1788,7 +1848,7 @@
         <v>25</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="I30" s="1" t="s">
         <v>65</v>
@@ -1823,7 +1883,7 @@
         <v>26</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="I31" s="1" t="s">
         <v>65</v>

--- a/src/main/resources/resources/TestData/com/nonobank/apps/testcase/bindcard/LoginBindCard.xlsx
+++ b/src/main/resources/resources/TestData/com/nonobank/apps/testcase/bindcard/LoginBindCard.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="105">
   <si>
     <t>flag</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -429,6 +429,14 @@
   </si>
   <si>
     <t>${IdBankGenerator.getInvalidBankCard(PSBC)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${UserInfoUtils.getBankUser(17)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${UserInfoUtils.getBankUser(4)}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -787,8 +795,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F12" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -856,7 +864,7 @@
         <v>31</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>49</v>
+        <v>104</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>12</v>
@@ -1206,7 +1214,7 @@
         <v>41</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>58</v>
+        <v>103</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>12</v>

--- a/src/main/resources/resources/TestData/com/nonobank/apps/testcase/bindcard/LoginBindCard.xlsx
+++ b/src/main/resources/resources/TestData/com/nonobank/apps/testcase/bindcard/LoginBindCard.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="105">
   <si>
     <t>flag</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -796,7 +796,7 @@
   <dimension ref="A1:L47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="A3" sqref="A3:A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -960,7 +960,7 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="B5" t="s">
         <v>64</v>
@@ -1030,7 +1030,7 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="B7" t="s">
         <v>64</v>
@@ -1275,7 +1275,7 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="1" t="s">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="B14" t="s">
         <v>64</v>
@@ -1310,7 +1310,7 @@
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="1" t="s">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="B15" t="s">
         <v>64</v>
@@ -1380,7 +1380,7 @@
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="1" t="s">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="B17" t="s">
         <v>85</v>
@@ -1485,7 +1485,7 @@
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="1" t="s">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="B20" t="s">
         <v>85</v>
@@ -1555,7 +1555,7 @@
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="1" t="s">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="B22" t="s">
         <v>85</v>
@@ -1800,7 +1800,7 @@
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="1" t="s">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="B29" t="s">
         <v>85</v>
@@ -1835,7 +1835,7 @@
     </row>
     <row r="30" spans="1:11">
       <c r="A30" s="1" t="s">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="B30" t="s">
         <v>85</v>
@@ -1905,7 +1905,7 @@
     </row>
     <row r="32" spans="1:11">
       <c r="A32" s="1" t="s">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="B32" t="s">
         <v>84</v>
@@ -2010,7 +2010,7 @@
     </row>
     <row r="35" spans="1:11">
       <c r="A35" s="1" t="s">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="B35" t="s">
         <v>84</v>
@@ -2080,7 +2080,7 @@
     </row>
     <row r="37" spans="1:11">
       <c r="A37" s="1" t="s">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="B37" t="s">
         <v>84</v>
@@ -2325,7 +2325,7 @@
     </row>
     <row r="44" spans="1:11">
       <c r="A44" s="1" t="s">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="B44" t="s">
         <v>84</v>
@@ -2360,7 +2360,7 @@
     </row>
     <row r="45" spans="1:11">
       <c r="A45" s="1" t="s">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="B45" t="s">
         <v>84</v>
@@ -2430,7 +2430,7 @@
     </row>
     <row r="47" spans="1:11">
       <c r="A47" s="1" t="s">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="B47" t="s">
         <v>64</v>
@@ -2470,10 +2470,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="A2" sqref="A2:A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -2491,7 +2491,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
@@ -2504,22 +2504,22 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>30</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>1</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>30</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>1</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2549,7 +2549,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>30</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -2559,64 +2559,163 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>1</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>30</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="1"/>
+      <c r="A17" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="1"/>
+      <c r="A18" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="1"/>
+      <c r="A19" s="1" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="1"/>
+      <c r="A20" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="1"/>
+      <c r="A21" s="1" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="1"/>
+      <c r="A22" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="1"/>
+      <c r="A23" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="1"/>
+      <c r="A24" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" s="1"/>
+      <c r="A25" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="26" spans="1:1">
-      <c r="A26" s="1"/>
+      <c r="A26" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" s="1"/>
+      <c r="A27" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="28" spans="1:1">
-      <c r="A28" s="1"/>
+      <c r="A28" s="1" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="29" spans="1:1">
-      <c r="A29" s="1"/>
+      <c r="A29" s="1" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="30" spans="1:1">
-      <c r="A30" s="1"/>
+      <c r="A30" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="31" spans="1:1">
-      <c r="A31" s="1"/>
+      <c r="A31" s="1" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="32" spans="1:1">
-      <c r="A32" s="1"/>
+      <c r="A32" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="33" spans="1:1">
-      <c r="A33" s="1"/>
+      <c r="A33" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" s="1" t="s">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/src/main/resources/resources/TestData/com/nonobank/apps/testcase/bindcard/LoginBindCard.xlsx
+++ b/src/main/resources/resources/TestData/com/nonobank/apps/testcase/bindcard/LoginBindCard.xlsx
@@ -436,7 +436,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>${UserInfoUtils.getBankUser(4)}</t>
+    <t>Y</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -795,8 +795,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A47"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -855,7 +855,7 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s">
         <v>64</v>
@@ -864,7 +864,7 @@
         <v>31</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>104</v>
+        <v>49</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>12</v>
@@ -925,7 +925,7 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="B4" t="s">
         <v>64</v>
@@ -995,7 +995,7 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="B6" t="s">
         <v>64</v>
@@ -1240,7 +1240,7 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="1" t="s">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="B13" t="s">
         <v>64</v>
@@ -1275,7 +1275,7 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="1" t="s">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="B14" t="s">
         <v>64</v>
@@ -1345,7 +1345,7 @@
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="1" t="s">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="B16" t="s">
         <v>64</v>
@@ -1450,7 +1450,7 @@
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="1" t="s">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="B19" t="s">
         <v>85</v>
@@ -1520,7 +1520,7 @@
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="1" t="s">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="B21" t="s">
         <v>85</v>
@@ -1765,7 +1765,7 @@
     </row>
     <row r="28" spans="1:11">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="B28" t="s">
         <v>85</v>
@@ -1800,7 +1800,7 @@
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="B29" t="s">
         <v>85</v>
@@ -1870,7 +1870,7 @@
     </row>
     <row r="31" spans="1:11">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="B31" t="s">
         <v>85</v>
@@ -1975,7 +1975,7 @@
     </row>
     <row r="34" spans="1:11">
       <c r="A34" s="1" t="s">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="B34" t="s">
         <v>84</v>
@@ -2045,7 +2045,7 @@
     </row>
     <row r="36" spans="1:11">
       <c r="A36" s="1" t="s">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="B36" t="s">
         <v>84</v>
@@ -2290,7 +2290,7 @@
     </row>
     <row r="43" spans="1:11">
       <c r="A43" s="1" t="s">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="B43" t="s">
         <v>84</v>
@@ -2325,7 +2325,7 @@
     </row>
     <row r="44" spans="1:11">
       <c r="A44" s="1" t="s">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="B44" t="s">
         <v>84</v>
@@ -2395,7 +2395,7 @@
     </row>
     <row r="46" spans="1:11">
       <c r="A46" s="1" t="s">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="B46" t="s">
         <v>84</v>
@@ -2430,7 +2430,7 @@
     </row>
     <row r="47" spans="1:11">
       <c r="A47" s="1" t="s">
-        <v>30</v>
+        <v>104</v>
       </c>
       <c r="B47" t="s">
         <v>64</v>
@@ -2472,7 +2472,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A46"/>
     </sheetView>
   </sheetViews>

--- a/src/main/resources/resources/TestData/com/nonobank/apps/testcase/bindcard/LoginBindCard.xlsx
+++ b/src/main/resources/resources/TestData/com/nonobank/apps/testcase/bindcard/LoginBindCard.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13215" windowHeight="3225"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13215" windowHeight="3225" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
@@ -20,423 +20,411 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="102">
   <si>
     <t>flag</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>result</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>passed</t>
+  </si>
+  <si>
+    <t>bank_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bankcard_no</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建设银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>checkCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${ConstantUtils.getCorrectCheckCode()}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${ConstantUtils.getCorrectLoginPassword()}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>expectResult</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>comments</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testcaseName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工商银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>招商银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中信银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广发银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平安银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交通银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>民生银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浦发银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兴业银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮政储蓄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光大银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>农业银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华夏银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建设银行绑卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中信银行绑卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华夏银行绑卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广发银行绑卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平安银行绑卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>农业银行绑卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国银行绑卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>招商银行绑卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光大银行绑卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交通银行绑卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>民生银行绑卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浦发银行绑卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工商银行绑卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兴业银行绑卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮政储蓄绑卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mobile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testcaseDescription</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同一银行只能绑定一张卡，若需绑定新卡，请先解绑已绑定的卡！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${UserInfoUtils.getBankUser(4)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${UserInfoUtils.getBankUser(10)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${UserInfoUtils.getBankUser(11)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${UserInfoUtils.getBankUser(15)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${UserInfoUtils.getBankUser(33)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${UserInfoUtils.getBankUser(2)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${UserInfoUtils.getBankUser(3)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${UserInfoUtils.getBankUser(5)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${UserInfoUtils.getBankUser(9)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${UserInfoUtils.getBankUser(17)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${UserInfoUtils.getBankUser(12)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${UserInfoUtils.getBankUser(1)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${UserInfoUtils.getBankUser(7)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${UserInfoUtils.getBankUser(6)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${UserInfoUtils.getBankUser(8)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>反例-重复绑卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${ConstantUtils.getCorrectValidation()}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${IdBankGenerator.getUnUsedBankCard(CCB)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${IdBankGenerator.getUnUsedBankCard(CITIC)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${IdBankGenerator.getUnUsedBankCard(HXB)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${IdBankGenerator.getUnUsedBankCard(GDB)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${IdBankGenerator.getUnUsedBankCard(PAB)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${IdBankGenerator.getUnUsedBankCard(ABC)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${IdBankGenerator.getUnUsedBankCard(BOC)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${IdBankGenerator.getUnUsedBankCard(CMB)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${IdBankGenerator.getUnUsedBankCard(CEB)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${IdBankGenerator.getUnUsedBankCard(BCOM)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${IdBankGenerator.getUnUsedBankCard(CMBC)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${IdBankGenerator.getUnUsedBankCard(SPDB)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${IdBankGenerator.getUnUsedBankCard(ICBC)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${IdBankGenerator.getUnUsedBankCard(CIB)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${IdBankGenerator.getUnUsedBankCard(PSBC)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${IdBankGenerator.getUnUsedBankCard(CCB)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>validation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>反例-卡号为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>反例-无效卡号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请输入有效的银行卡号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请输入银行卡号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${IdBankGenerator.getInvalidBankCard(CCB)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${IdBankGenerator.getInvalidBankCard(CITIC)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${IdBankGenerator.getInvalidBankCard(HXB)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${IdBankGenerator.getInvalidBankCard(GDB)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${IdBankGenerator.getInvalidBankCard(PAB)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${IdBankGenerator.getInvalidBankCard(ABC)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${IdBankGenerator.getInvalidBankCard(BOC)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${IdBankGenerator.getInvalidBankCard(CMB)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${IdBankGenerator.getInvalidBankCard(CEB)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${IdBankGenerator.getInvalidBankCard(BCOM)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${IdBankGenerator.getInvalidBankCard(CMBC)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${IdBankGenerator.getInvalidBankCard(SPDB)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${IdBankGenerator.getInvalidBankCard(ICBC)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${IdBankGenerator.getInvalidBankCard(CIB)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${IdBankGenerator.getInvalidBankCard(PSBC)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${UserInfoUtils.getBankUser(17)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${UserInfoUtils.getBankUser(6)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Y</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>result</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>password</t>
-  </si>
-  <si>
-    <t>comment</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>校验金额、支付密码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>passed</t>
-  </si>
-  <si>
-    <t>bank_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bankcard_no</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>建设银行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>checkCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${ConstantUtils.getCorrectCheckCode()}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${ConstantUtils.getCorrectLoginPassword()}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>expectResult</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>comments</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>testcaseName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工商银行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>招商银行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中信银行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>广发银行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>平安银行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中国银行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>交通银行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>民生银行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>浦发银行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>兴业银行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>邮政储蓄</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>光大银行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>农业银行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>华夏银行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>N</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>建设银行绑卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中信银行绑卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>华夏银行绑卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>广发银行绑卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>平安银行绑卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>农业银行绑卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中国银行绑卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>招商银行绑卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>光大银行绑卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>交通银行绑卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>民生银行绑卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>浦发银行绑卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工商银行绑卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>兴业银行绑卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>邮政储蓄绑卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mobile</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>testcaseDescription</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>同一银行只能绑定一张卡，若需绑定新卡，请先解绑已绑定的卡！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${UserInfoUtils.getBankUser(4)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${UserInfoUtils.getBankUser(10)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${UserInfoUtils.getBankUser(11)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${UserInfoUtils.getBankUser(15)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${UserInfoUtils.getBankUser(33)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${UserInfoUtils.getBankUser(2)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${UserInfoUtils.getBankUser(3)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${UserInfoUtils.getBankUser(5)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${UserInfoUtils.getBankUser(9)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${UserInfoUtils.getBankUser(17)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${UserInfoUtils.getBankUser(12)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${UserInfoUtils.getBankUser(1)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${UserInfoUtils.getBankUser(7)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${UserInfoUtils.getBankUser(6)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${UserInfoUtils.getBankUser(8)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>反例-重复绑卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${ConstantUtils.getCorrectValidation()}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${IdBankGenerator.getUnUsedBankCard(CCB)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${IdBankGenerator.getUnUsedBankCard(CITIC)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${IdBankGenerator.getUnUsedBankCard(HXB)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${IdBankGenerator.getUnUsedBankCard(GDB)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${IdBankGenerator.getUnUsedBankCard(PAB)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${IdBankGenerator.getUnUsedBankCard(ABC)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${IdBankGenerator.getUnUsedBankCard(BOC)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${IdBankGenerator.getUnUsedBankCard(CMB)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${IdBankGenerator.getUnUsedBankCard(CEB)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${IdBankGenerator.getUnUsedBankCard(BCOM)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${IdBankGenerator.getUnUsedBankCard(CMBC)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${IdBankGenerator.getUnUsedBankCard(SPDB)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${IdBankGenerator.getUnUsedBankCard(ICBC)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${IdBankGenerator.getUnUsedBankCard(CIB)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${IdBankGenerator.getUnUsedBankCard(PSBC)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${IdBankGenerator.getUnUsedBankCard(CCB)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>validation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>请输入验证码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>反例-卡号为空</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>反例-无效卡号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>请输入有效的银行卡号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>请输入银行卡号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${IdBankGenerator.getInvalidBankCard(CCB)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${IdBankGenerator.getInvalidBankCard(CITIC)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${IdBankGenerator.getInvalidBankCard(HXB)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${IdBankGenerator.getInvalidBankCard(GDB)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${IdBankGenerator.getInvalidBankCard(PAB)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${IdBankGenerator.getInvalidBankCard(ABC)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${IdBankGenerator.getInvalidBankCard(BOC)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${IdBankGenerator.getInvalidBankCard(CMB)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${IdBankGenerator.getInvalidBankCard(CEB)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${IdBankGenerator.getInvalidBankCard(BCOM)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${IdBankGenerator.getInvalidBankCard(CMBC)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${IdBankGenerator.getInvalidBankCard(SPDB)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${IdBankGenerator.getInvalidBankCard(ICBC)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${IdBankGenerator.getInvalidBankCard(CIB)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${IdBankGenerator.getInvalidBankCard(PSBC)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${UserInfoUtils.getBankUser(17)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -793,10 +781,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L47"/>
+  <dimension ref="A1:L46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32:A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -820,1645 +808,1612 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" t="s">
+        <v>78</v>
+      </c>
+      <c r="J1" t="s">
         <v>10</v>
       </c>
-      <c r="G1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" t="s">
-        <v>82</v>
-      </c>
-      <c r="J1" t="s">
-        <v>13</v>
-      </c>
       <c r="K1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="B2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="J2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
-        <v>30</v>
+        <v>101</v>
       </c>
       <c r="B3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="J3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
-        <v>1</v>
+        <v>101</v>
       </c>
       <c r="B4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>68</v>
-      </c>
       <c r="I4" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="J4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B5" t="s">
-        <v>64</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="D5" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="J5" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
-        <v>1</v>
+        <v>101</v>
       </c>
       <c r="B6" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="J6" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="B7" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="J7" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
-        <v>30</v>
+        <v>101</v>
       </c>
       <c r="B8" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="J8" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
-        <v>30</v>
+        <v>101</v>
       </c>
       <c r="B9" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="J9" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
-        <v>30</v>
+        <v>101</v>
       </c>
       <c r="B10" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="J10" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="1" t="s">
-        <v>30</v>
+        <v>101</v>
       </c>
       <c r="B11" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="J11" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="1" t="s">
-        <v>30</v>
+        <v>101</v>
       </c>
       <c r="B12" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="J12" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="1" t="s">
-        <v>1</v>
+        <v>101</v>
       </c>
       <c r="B13" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="J13" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="1" t="s">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="B14" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="J14" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="1" t="s">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="B15" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J15" t="s">
         <v>44</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="J15" t="s">
-        <v>48</v>
-      </c>
       <c r="K15" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="1" t="s">
-        <v>1</v>
+        <v>101</v>
       </c>
       <c r="B16" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="J16" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="1" t="s">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="B17" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="J17" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="1" t="s">
-        <v>30</v>
+        <v>101</v>
       </c>
       <c r="B18" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="J18" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="1" t="s">
-        <v>1</v>
+        <v>101</v>
       </c>
       <c r="B19" t="s">
+        <v>80</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H19" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>90</v>
-      </c>
       <c r="I19" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="J19" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B20" t="s">
+        <v>80</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B20" t="s">
-        <v>85</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="D20" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="J20" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="1" t="s">
-        <v>1</v>
+        <v>101</v>
       </c>
       <c r="B21" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="J21" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="1" t="s">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="B22" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="J22" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="1" t="s">
-        <v>30</v>
+        <v>101</v>
       </c>
       <c r="B23" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="J23" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="1" t="s">
-        <v>30</v>
+        <v>101</v>
       </c>
       <c r="B24" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="J24" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="1" t="s">
-        <v>30</v>
+        <v>101</v>
       </c>
       <c r="B25" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>62</v>
+        <v>99</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="J25" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:11">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>101</v>
       </c>
       <c r="B26" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="J26" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:11">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>101</v>
       </c>
       <c r="B27" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="J27" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:11">
       <c r="A28" s="1" t="s">
-        <v>1</v>
+        <v>101</v>
       </c>
       <c r="B28" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="J28" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="1" t="s">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="B29" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="J29" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:11">
       <c r="A30" s="1" t="s">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="B30" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="J30" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:11">
       <c r="A31" s="1" t="s">
-        <v>1</v>
+        <v>101</v>
       </c>
       <c r="B31" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="J31" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:11">
       <c r="A32" s="1" t="s">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="B32" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="J32" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:11">
       <c r="A33" s="1" t="s">
-        <v>30</v>
+        <v>101</v>
       </c>
       <c r="B33" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="J33" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:11">
       <c r="A34" s="1" t="s">
-        <v>1</v>
+        <v>101</v>
       </c>
       <c r="B34" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="J34" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:11">
       <c r="A35" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B35" t="s">
+        <v>79</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B35" t="s">
-        <v>84</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="D35" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="J35" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:11">
       <c r="A36" s="1" t="s">
-        <v>1</v>
+        <v>101</v>
       </c>
       <c r="B36" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="J36" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:11">
       <c r="A37" s="1" t="s">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="B37" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="J37" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38" spans="1:11">
       <c r="A38" s="1" t="s">
-        <v>30</v>
+        <v>101</v>
       </c>
       <c r="B38" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="J38" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39" spans="1:11">
       <c r="A39" s="1" t="s">
-        <v>30</v>
+        <v>101</v>
       </c>
       <c r="B39" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="J39" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40" spans="1:11">
       <c r="A40" s="1" t="s">
-        <v>30</v>
+        <v>101</v>
       </c>
       <c r="B40" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="J40" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="41" spans="1:11">
       <c r="A41" s="1" t="s">
-        <v>30</v>
+        <v>101</v>
       </c>
       <c r="B41" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="J41" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42" spans="1:11">
       <c r="A42" s="1" t="s">
-        <v>30</v>
+        <v>101</v>
       </c>
       <c r="B42" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="J42" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43" spans="1:11">
       <c r="A43" s="1" t="s">
-        <v>1</v>
+        <v>101</v>
       </c>
       <c r="B43" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="J43" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="44" spans="1:11">
       <c r="A44" s="1" t="s">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="B44" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="J44" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="45" spans="1:11">
       <c r="A45" s="1" t="s">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="B45" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="J45" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="K45" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46" spans="1:11">
       <c r="A46" s="1" t="s">
-        <v>1</v>
+        <v>101</v>
       </c>
       <c r="B46" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="J46" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="K46" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11">
-      <c r="A47" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B47" t="s">
-        <v>64</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H47" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="I47" s="1"/>
-      <c r="J47" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="K47" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -2470,254 +2425,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D46"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A46"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1">
-      <c r="A28" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1">
-      <c r="A29" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1">
-      <c r="A30" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1">
-      <c r="A31" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1">
-      <c r="A32" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1">
-      <c r="A34" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1">
-      <c r="A35" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1">
-      <c r="A37" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1">
-      <c r="A38" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1">
-      <c r="A39" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1">
-      <c r="A40" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1">
-      <c r="A41" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1">
-      <c r="A42" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1">
-      <c r="A43" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1">
-      <c r="A44" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1">
-      <c r="A45" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1">
-      <c r="A46" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/src/main/resources/resources/TestData/com/nonobank/apps/testcase/bindcard/LoginBindCard.xlsx
+++ b/src/main/resources/resources/TestData/com/nonobank/apps/testcase/bindcard/LoginBindCard.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13215" windowHeight="3225" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13215" windowHeight="3225"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="101">
   <si>
     <t>flag</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -325,10 +325,6 @@
   </si>
   <si>
     <t>${IdBankGenerator.getUnUsedBankCard(PSBC)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${IdBankGenerator.getUnUsedBankCard(CCB)}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -783,8 +779,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L46"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32:A46"/>
+    <sheetView tabSelected="1" topLeftCell="D25" workbookViewId="0">
+      <selection activeCell="H32" sqref="H32:H46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -829,7 +825,7 @@
         <v>5</v>
       </c>
       <c r="I1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J1" t="s">
         <v>10</v>
@@ -843,7 +839,7 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B2" t="s">
         <v>60</v>
@@ -878,7 +874,7 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B3" t="s">
         <v>60</v>
@@ -913,7 +909,7 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B4" t="s">
         <v>60</v>
@@ -948,7 +944,7 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B5" t="s">
         <v>60</v>
@@ -983,7 +979,7 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B6" t="s">
         <v>60</v>
@@ -1018,7 +1014,7 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B7" t="s">
         <v>60</v>
@@ -1053,7 +1049,7 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B8" t="s">
         <v>60</v>
@@ -1088,7 +1084,7 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B9" t="s">
         <v>60</v>
@@ -1123,7 +1119,7 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B10" t="s">
         <v>60</v>
@@ -1158,7 +1154,7 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B11" t="s">
         <v>60</v>
@@ -1193,7 +1189,7 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B12" t="s">
         <v>60</v>
@@ -1202,7 +1198,7 @@
         <v>37</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>9</v>
@@ -1228,7 +1224,7 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B13" t="s">
         <v>60</v>
@@ -1263,7 +1259,7 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B14" t="s">
         <v>60</v>
@@ -1298,7 +1294,7 @@
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B15" t="s">
         <v>60</v>
@@ -1333,7 +1329,7 @@
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B16" t="s">
         <v>60</v>
@@ -1368,10 +1364,10 @@
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>27</v>
@@ -1389,13 +1385,13 @@
         <v>6</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>61</v>
       </c>
       <c r="J17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K17" s="2" t="s">
         <v>3</v>
@@ -1403,10 +1399,10 @@
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B18" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>28</v>
@@ -1424,13 +1420,13 @@
         <v>15</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>61</v>
       </c>
       <c r="J18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K18" s="2" t="s">
         <v>3</v>
@@ -1438,10 +1434,10 @@
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>29</v>
@@ -1459,13 +1455,13 @@
         <v>26</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I19" s="1" t="s">
         <v>61</v>
       </c>
       <c r="J19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K19" s="2" t="s">
         <v>3</v>
@@ -1473,10 +1469,10 @@
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>30</v>
@@ -1494,13 +1490,13 @@
         <v>16</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I20" s="1" t="s">
         <v>61</v>
       </c>
       <c r="J20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K20" s="2" t="s">
         <v>3</v>
@@ -1508,10 +1504,10 @@
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B21" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>31</v>
@@ -1529,13 +1525,13 @@
         <v>17</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I21" s="1" t="s">
         <v>61</v>
       </c>
       <c r="J21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K21" s="2" t="s">
         <v>3</v>
@@ -1543,10 +1539,10 @@
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B22" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>32</v>
@@ -1564,13 +1560,13 @@
         <v>25</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I22" s="1" t="s">
         <v>61</v>
       </c>
       <c r="J22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K22" s="2" t="s">
         <v>3</v>
@@ -1578,10 +1574,10 @@
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B23" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>33</v>
@@ -1599,13 +1595,13 @@
         <v>18</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I23" s="1" t="s">
         <v>61</v>
       </c>
       <c r="J23" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K23" s="2" t="s">
         <v>3</v>
@@ -1613,10 +1609,10 @@
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B24" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>34</v>
@@ -1634,13 +1630,13 @@
         <v>14</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I24" s="1" t="s">
         <v>61</v>
       </c>
       <c r="J24" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K24" s="2" t="s">
         <v>3</v>
@@ -1648,16 +1644,16 @@
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B25" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>9</v>
@@ -1669,13 +1665,13 @@
         <v>24</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I25" s="1" t="s">
         <v>61</v>
       </c>
       <c r="J25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K25" s="2" t="s">
         <v>3</v>
@@ -1683,10 +1679,10 @@
     </row>
     <row r="26" spans="1:11">
       <c r="A26" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B26" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>36</v>
@@ -1704,13 +1700,13 @@
         <v>19</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I26" s="1" t="s">
         <v>61</v>
       </c>
       <c r="J26" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K26" s="2" t="s">
         <v>3</v>
@@ -1718,10 +1714,10 @@
     </row>
     <row r="27" spans="1:11">
       <c r="A27" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B27" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>37</v>
@@ -1739,13 +1735,13 @@
         <v>20</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I27" s="1" t="s">
         <v>61</v>
       </c>
       <c r="J27" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K27" s="2" t="s">
         <v>3</v>
@@ -1753,10 +1749,10 @@
     </row>
     <row r="28" spans="1:11">
       <c r="A28" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B28" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>38</v>
@@ -1774,13 +1770,13 @@
         <v>21</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I28" s="1" t="s">
         <v>61</v>
       </c>
       <c r="J28" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K28" s="2" t="s">
         <v>3</v>
@@ -1788,10 +1784,10 @@
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B29" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>39</v>
@@ -1809,13 +1805,13 @@
         <v>13</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I29" s="1" t="s">
         <v>61</v>
       </c>
       <c r="J29" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K29" s="2" t="s">
         <v>3</v>
@@ -1823,10 +1819,10 @@
     </row>
     <row r="30" spans="1:11">
       <c r="A30" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B30" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>40</v>
@@ -1844,13 +1840,13 @@
         <v>22</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I30" s="1" t="s">
         <v>61</v>
       </c>
       <c r="J30" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K30" s="2" t="s">
         <v>3</v>
@@ -1858,10 +1854,10 @@
     </row>
     <row r="31" spans="1:11">
       <c r="A31" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B31" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>41</v>
@@ -1879,13 +1875,13 @@
         <v>23</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I31" s="1" t="s">
         <v>61</v>
       </c>
       <c r="J31" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K31" s="2" t="s">
         <v>3</v>
@@ -1893,10 +1889,10 @@
     </row>
     <row r="32" spans="1:11">
       <c r="A32" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B32" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>27</v>
@@ -1913,14 +1909,12 @@
       <c r="G32" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H32" s="1" t="s">
-        <v>77</v>
-      </c>
+      <c r="H32" s="1"/>
       <c r="I32" s="1" t="s">
         <v>61</v>
       </c>
       <c r="J32" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K32" s="2" t="s">
         <v>3</v>
@@ -1928,10 +1922,10 @@
     </row>
     <row r="33" spans="1:11">
       <c r="A33" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B33" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>28</v>
@@ -1948,14 +1942,12 @@
       <c r="G33" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H33" s="1" t="s">
-        <v>63</v>
-      </c>
+      <c r="H33" s="1"/>
       <c r="I33" s="1" t="s">
         <v>61</v>
       </c>
       <c r="J33" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K33" s="2" t="s">
         <v>3</v>
@@ -1963,10 +1955,10 @@
     </row>
     <row r="34" spans="1:11">
       <c r="A34" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B34" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>29</v>
@@ -1983,14 +1975,12 @@
       <c r="G34" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H34" s="1" t="s">
-        <v>64</v>
-      </c>
+      <c r="H34" s="1"/>
       <c r="I34" s="1" t="s">
         <v>61</v>
       </c>
       <c r="J34" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K34" s="2" t="s">
         <v>3</v>
@@ -1998,10 +1988,10 @@
     </row>
     <row r="35" spans="1:11">
       <c r="A35" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B35" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>30</v>
@@ -2018,14 +2008,12 @@
       <c r="G35" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H35" s="1" t="s">
-        <v>65</v>
-      </c>
+      <c r="H35" s="1"/>
       <c r="I35" s="1" t="s">
         <v>61</v>
       </c>
       <c r="J35" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K35" s="2" t="s">
         <v>3</v>
@@ -2033,10 +2021,10 @@
     </row>
     <row r="36" spans="1:11">
       <c r="A36" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B36" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>31</v>
@@ -2053,14 +2041,12 @@
       <c r="G36" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H36" s="1" t="s">
-        <v>66</v>
-      </c>
+      <c r="H36" s="1"/>
       <c r="I36" s="1" t="s">
         <v>61</v>
       </c>
       <c r="J36" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K36" s="2" t="s">
         <v>3</v>
@@ -2068,10 +2054,10 @@
     </row>
     <row r="37" spans="1:11">
       <c r="A37" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B37" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>32</v>
@@ -2088,14 +2074,12 @@
       <c r="G37" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H37" s="1" t="s">
-        <v>67</v>
-      </c>
+      <c r="H37" s="1"/>
       <c r="I37" s="1" t="s">
         <v>61</v>
       </c>
       <c r="J37" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K37" s="2" t="s">
         <v>3</v>
@@ -2103,10 +2087,10 @@
     </row>
     <row r="38" spans="1:11">
       <c r="A38" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B38" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>33</v>
@@ -2123,14 +2107,12 @@
       <c r="G38" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H38" s="1" t="s">
-        <v>68</v>
-      </c>
+      <c r="H38" s="1"/>
       <c r="I38" s="1" t="s">
         <v>61</v>
       </c>
       <c r="J38" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K38" s="2" t="s">
         <v>3</v>
@@ -2138,10 +2120,10 @@
     </row>
     <row r="39" spans="1:11">
       <c r="A39" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B39" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>34</v>
@@ -2158,14 +2140,12 @@
       <c r="G39" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H39" s="1" t="s">
-        <v>69</v>
-      </c>
+      <c r="H39" s="1"/>
       <c r="I39" s="1" t="s">
         <v>61</v>
       </c>
       <c r="J39" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K39" s="2" t="s">
         <v>3</v>
@@ -2173,10 +2153,10 @@
     </row>
     <row r="40" spans="1:11">
       <c r="A40" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B40" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>35</v>
@@ -2193,14 +2173,12 @@
       <c r="G40" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H40" s="1" t="s">
-        <v>70</v>
-      </c>
+      <c r="H40" s="1"/>
       <c r="I40" s="1" t="s">
         <v>61</v>
       </c>
       <c r="J40" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K40" s="2" t="s">
         <v>3</v>
@@ -2208,10 +2186,10 @@
     </row>
     <row r="41" spans="1:11">
       <c r="A41" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B41" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>36</v>
@@ -2228,14 +2206,12 @@
       <c r="G41" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H41" s="1" t="s">
-        <v>71</v>
-      </c>
+      <c r="H41" s="1"/>
       <c r="I41" s="1" t="s">
         <v>61</v>
       </c>
       <c r="J41" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K41" s="2" t="s">
         <v>3</v>
@@ -2243,10 +2219,10 @@
     </row>
     <row r="42" spans="1:11">
       <c r="A42" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B42" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>37</v>
@@ -2263,14 +2239,12 @@
       <c r="G42" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H42" s="1" t="s">
-        <v>72</v>
-      </c>
+      <c r="H42" s="1"/>
       <c r="I42" s="1" t="s">
         <v>61</v>
       </c>
       <c r="J42" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K42" s="2" t="s">
         <v>3</v>
@@ -2278,10 +2252,10 @@
     </row>
     <row r="43" spans="1:11">
       <c r="A43" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B43" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>38</v>
@@ -2298,14 +2272,12 @@
       <c r="G43" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H43" s="1" t="s">
-        <v>73</v>
-      </c>
+      <c r="H43" s="1"/>
       <c r="I43" s="1" t="s">
         <v>61</v>
       </c>
       <c r="J43" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K43" s="2" t="s">
         <v>3</v>
@@ -2313,10 +2285,10 @@
     </row>
     <row r="44" spans="1:11">
       <c r="A44" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B44" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>39</v>
@@ -2333,14 +2305,12 @@
       <c r="G44" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H44" s="1" t="s">
-        <v>74</v>
-      </c>
+      <c r="H44" s="1"/>
       <c r="I44" s="1" t="s">
         <v>61</v>
       </c>
       <c r="J44" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K44" s="2" t="s">
         <v>3</v>
@@ -2348,10 +2318,10 @@
     </row>
     <row r="45" spans="1:11">
       <c r="A45" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B45" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>40</v>
@@ -2368,14 +2338,12 @@
       <c r="G45" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H45" s="1" t="s">
-        <v>75</v>
-      </c>
+      <c r="H45" s="1"/>
       <c r="I45" s="1" t="s">
         <v>61</v>
       </c>
       <c r="J45" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K45" s="2" t="s">
         <v>3</v>
@@ -2383,10 +2351,10 @@
     </row>
     <row r="46" spans="1:11">
       <c r="A46" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B46" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>41</v>
@@ -2403,14 +2371,12 @@
       <c r="G46" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H46" s="1" t="s">
-        <v>76</v>
-      </c>
+      <c r="H46" s="1"/>
       <c r="I46" s="1" t="s">
         <v>61</v>
       </c>
       <c r="J46" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K46" s="2" t="s">
         <v>3</v>
@@ -2427,8 +2393,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>

--- a/src/main/resources/resources/TestData/com/nonobank/apps/testcase/bindcard/LoginBindCard.xlsx
+++ b/src/main/resources/resources/TestData/com/nonobank/apps/testcase/bindcard/LoginBindCard.xlsx
@@ -10,7 +10,7 @@
     <sheet name="test" sheetId="1" r:id="rId1"/>
     <sheet name="comment" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -779,8 +779,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D25" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32:H46"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>

--- a/src/main/resources/resources/TestData/com/nonobank/apps/testcase/bindcard/LoginBindCard.xlsx
+++ b/src/main/resources/resources/TestData/com/nonobank/apps/testcase/bindcard/LoginBindCard.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="129">
   <si>
     <t>flag</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -128,66 +128,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>建设银行绑卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中信银行绑卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>华夏银行绑卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>广发银行绑卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>平安银行绑卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>农业银行绑卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中国银行绑卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>招商银行绑卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>光大银行绑卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>交通银行绑卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>民生银行绑卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>浦发银行绑卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工商银行绑卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>兴业银行绑卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>邮政储蓄绑卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>mobile</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -260,10 +200,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>反例-重复绑卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>${ConstantUtils.getCorrectValidation()}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -332,14 +268,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>反例-卡号为空</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>反例-无效卡号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>请输入有效的银行卡号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -421,6 +349,190 @@
   </si>
   <si>
     <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>反例-绑卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建设银行无效卡号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中信银行无效卡号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华夏银行无效卡号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广发银行无效卡号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平安银行无效卡号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>农业银行无效卡号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国银行无效卡号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>招商银行无效卡号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光大银行无效卡号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交通银行无效卡号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>民生银行无效卡号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浦发银行无效卡号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工商银行无效卡号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兴业银行无效卡号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮政储蓄无效卡号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建设银行卡号为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中信银行卡号为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华夏银行卡号为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广发银行卡号为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平安银行卡号为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>农业银行卡号为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国银行卡号为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>招商银行卡号为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光大银行卡号为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交通银行卡号为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>民生银行卡号为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浦发银行卡号为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工商银行卡号为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兴业银行卡号为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮政储蓄卡号为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绑定多张建设银行卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绑定多张中信银行卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绑定多张华夏银行卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绑定多张广发银行卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绑定多张平安银行卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绑定多张农业银行卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绑定多张中国银行卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绑定多张招商银行卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绑定多张光大银行卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绑定多张交通银行卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绑定多张民生银行卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绑定多张浦发银行卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绑定多张工商银行卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绑定多张兴业银行卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绑定多张邮政储蓄卡</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -779,8 +891,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -807,10 +919,10 @@
         <v>12</v>
       </c>
       <c r="C1" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="D1" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
@@ -825,7 +937,7 @@
         <v>5</v>
       </c>
       <c r="I1" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="J1" t="s">
         <v>10</v>
@@ -839,16 +951,16 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="B2" t="s">
-        <v>60</v>
+        <v>83</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>27</v>
+        <v>114</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>9</v>
@@ -860,13 +972,13 @@
         <v>6</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="J2" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>3</v>
@@ -874,16 +986,16 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="B3" t="s">
-        <v>60</v>
+        <v>83</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>28</v>
+        <v>115</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>9</v>
@@ -895,13 +1007,13 @@
         <v>15</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="J3" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>3</v>
@@ -909,16 +1021,16 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="B4" t="s">
-        <v>60</v>
+        <v>83</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>29</v>
+        <v>116</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>9</v>
@@ -930,13 +1042,13 @@
         <v>26</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="J4" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="K4" s="2" t="s">
         <v>3</v>
@@ -944,16 +1056,16 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="B5" t="s">
-        <v>60</v>
+        <v>83</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>30</v>
+        <v>117</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>9</v>
@@ -965,13 +1077,13 @@
         <v>16</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="J5" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="K5" s="2" t="s">
         <v>3</v>
@@ -979,16 +1091,16 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="B6" t="s">
-        <v>60</v>
+        <v>83</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>31</v>
+        <v>118</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>9</v>
@@ -1000,13 +1112,13 @@
         <v>17</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="J6" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="K6" s="2" t="s">
         <v>3</v>
@@ -1014,16 +1126,16 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="B7" t="s">
-        <v>60</v>
+        <v>83</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>32</v>
+        <v>119</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>9</v>
@@ -1035,13 +1147,13 @@
         <v>25</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="J7" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>3</v>
@@ -1049,16 +1161,16 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="B8" t="s">
-        <v>60</v>
+        <v>83</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>33</v>
+        <v>120</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>9</v>
@@ -1070,13 +1182,13 @@
         <v>18</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="J8" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="K8" s="2" t="s">
         <v>3</v>
@@ -1084,16 +1196,16 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="B9" t="s">
-        <v>60</v>
+        <v>83</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>34</v>
+        <v>121</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>9</v>
@@ -1105,13 +1217,13 @@
         <v>14</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="J9" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="K9" s="2" t="s">
         <v>3</v>
@@ -1119,16 +1231,16 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="B10" t="s">
-        <v>60</v>
+        <v>83</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>35</v>
+        <v>122</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>9</v>
@@ -1140,13 +1252,13 @@
         <v>24</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="J10" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="K10" s="2" t="s">
         <v>3</v>
@@ -1154,16 +1266,16 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="1" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="B11" t="s">
-        <v>60</v>
+        <v>83</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>36</v>
+        <v>123</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>9</v>
@@ -1175,13 +1287,13 @@
         <v>19</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="J11" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="K11" s="2" t="s">
         <v>3</v>
@@ -1189,16 +1301,16 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="1" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="B12" t="s">
-        <v>60</v>
+        <v>83</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>37</v>
+        <v>124</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>9</v>
@@ -1210,13 +1322,13 @@
         <v>20</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="J12" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="K12" s="2" t="s">
         <v>3</v>
@@ -1224,16 +1336,16 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="1" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="B13" t="s">
-        <v>60</v>
+        <v>83</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>38</v>
+        <v>125</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>9</v>
@@ -1245,13 +1357,13 @@
         <v>21</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="J13" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="K13" s="2" t="s">
         <v>3</v>
@@ -1259,16 +1371,16 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="1" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="B14" t="s">
-        <v>60</v>
+        <v>83</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>39</v>
+        <v>126</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>9</v>
@@ -1280,13 +1392,13 @@
         <v>13</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="J14" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="K14" s="2" t="s">
         <v>3</v>
@@ -1294,16 +1406,16 @@
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="1" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="B15" t="s">
-        <v>60</v>
+        <v>83</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>40</v>
+        <v>127</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>9</v>
@@ -1315,13 +1427,13 @@
         <v>22</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="J15" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="K15" s="2" t="s">
         <v>3</v>
@@ -1329,16 +1441,16 @@
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="1" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="B16" t="s">
-        <v>60</v>
+        <v>83</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>41</v>
+        <v>128</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>9</v>
@@ -1350,13 +1462,13 @@
         <v>23</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="J16" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="K16" s="2" t="s">
         <v>3</v>
@@ -1364,16 +1476,16 @@
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="1" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="B17" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>27</v>
+        <v>84</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>9</v>
@@ -1385,13 +1497,13 @@
         <v>6</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="J17" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="K17" s="2" t="s">
         <v>3</v>
@@ -1399,16 +1511,16 @@
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="1" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="B18" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>28</v>
+        <v>85</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>9</v>
@@ -1420,13 +1532,13 @@
         <v>15</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="J18" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="K18" s="2" t="s">
         <v>3</v>
@@ -1434,16 +1546,16 @@
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="1" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="B19" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>29</v>
+        <v>86</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>9</v>
@@ -1455,13 +1567,13 @@
         <v>26</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="J19" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="K19" s="2" t="s">
         <v>3</v>
@@ -1469,16 +1581,16 @@
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="1" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="B20" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>30</v>
+        <v>87</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>9</v>
@@ -1490,13 +1602,13 @@
         <v>16</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="J20" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="K20" s="2" t="s">
         <v>3</v>
@@ -1504,16 +1616,16 @@
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="1" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="B21" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>31</v>
+        <v>88</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>9</v>
@@ -1525,13 +1637,13 @@
         <v>17</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="J21" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="K21" s="2" t="s">
         <v>3</v>
@@ -1539,16 +1651,16 @@
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="1" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="B22" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>32</v>
+        <v>89</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>9</v>
@@ -1560,13 +1672,13 @@
         <v>25</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="J22" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="K22" s="2" t="s">
         <v>3</v>
@@ -1574,16 +1686,16 @@
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="1" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="B23" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>33</v>
+        <v>90</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>9</v>
@@ -1595,13 +1707,13 @@
         <v>18</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="J23" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="K23" s="2" t="s">
         <v>3</v>
@@ -1609,16 +1721,16 @@
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="1" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="B24" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>34</v>
+        <v>91</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>9</v>
@@ -1630,13 +1742,13 @@
         <v>14</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="J24" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="K24" s="2" t="s">
         <v>3</v>
@@ -1644,16 +1756,16 @@
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="1" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="B25" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>35</v>
+        <v>92</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>9</v>
@@ -1665,13 +1777,13 @@
         <v>24</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="J25" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="K25" s="2" t="s">
         <v>3</v>
@@ -1679,16 +1791,16 @@
     </row>
     <row r="26" spans="1:11">
       <c r="A26" s="1" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="B26" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>36</v>
+        <v>93</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>9</v>
@@ -1700,13 +1812,13 @@
         <v>19</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="J26" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="K26" s="2" t="s">
         <v>3</v>
@@ -1714,16 +1826,16 @@
     </row>
     <row r="27" spans="1:11">
       <c r="A27" s="1" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="B27" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>37</v>
+        <v>94</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>9</v>
@@ -1735,13 +1847,13 @@
         <v>20</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="J27" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="K27" s="2" t="s">
         <v>3</v>
@@ -1749,16 +1861,16 @@
     </row>
     <row r="28" spans="1:11">
       <c r="A28" s="1" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="B28" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>38</v>
+        <v>95</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>9</v>
@@ -1770,13 +1882,13 @@
         <v>21</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="J28" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="K28" s="2" t="s">
         <v>3</v>
@@ -1784,16 +1896,16 @@
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="1" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="B29" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>39</v>
+        <v>96</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>9</v>
@@ -1805,13 +1917,13 @@
         <v>13</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="J29" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="K29" s="2" t="s">
         <v>3</v>
@@ -1819,16 +1931,16 @@
     </row>
     <row r="30" spans="1:11">
       <c r="A30" s="1" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="B30" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>40</v>
+        <v>97</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>9</v>
@@ -1840,13 +1952,13 @@
         <v>22</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="J30" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="K30" s="2" t="s">
         <v>3</v>
@@ -1854,16 +1966,16 @@
     </row>
     <row r="31" spans="1:11">
       <c r="A31" s="1" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="B31" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>41</v>
+        <v>98</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>9</v>
@@ -1875,13 +1987,13 @@
         <v>23</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="J31" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="K31" s="2" t="s">
         <v>3</v>
@@ -1889,16 +2001,16 @@
     </row>
     <row r="32" spans="1:11">
       <c r="A32" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B32" t="s">
+        <v>83</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B32" t="s">
-        <v>78</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="D32" s="1" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>9</v>
@@ -1911,10 +2023,10 @@
       </c>
       <c r="H32" s="1"/>
       <c r="I32" s="1" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="J32" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="K32" s="2" t="s">
         <v>3</v>
@@ -1922,16 +2034,16 @@
     </row>
     <row r="33" spans="1:11">
       <c r="A33" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B33" t="s">
+        <v>83</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B33" t="s">
-        <v>78</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="D33" s="1" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>9</v>
@@ -1944,10 +2056,10 @@
       </c>
       <c r="H33" s="1"/>
       <c r="I33" s="1" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="J33" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="K33" s="2" t="s">
         <v>3</v>
@@ -1955,16 +2067,16 @@
     </row>
     <row r="34" spans="1:11">
       <c r="A34" s="1" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="B34" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>29</v>
+        <v>101</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>9</v>
@@ -1977,10 +2089,10 @@
       </c>
       <c r="H34" s="1"/>
       <c r="I34" s="1" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="J34" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="K34" s="2" t="s">
         <v>3</v>
@@ -1988,16 +2100,16 @@
     </row>
     <row r="35" spans="1:11">
       <c r="A35" s="1" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="B35" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>30</v>
+        <v>102</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>9</v>
@@ -2010,10 +2122,10 @@
       </c>
       <c r="H35" s="1"/>
       <c r="I35" s="1" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="J35" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="K35" s="2" t="s">
         <v>3</v>
@@ -2021,16 +2133,16 @@
     </row>
     <row r="36" spans="1:11">
       <c r="A36" s="1" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="B36" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>31</v>
+        <v>103</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>9</v>
@@ -2043,10 +2155,10 @@
       </c>
       <c r="H36" s="1"/>
       <c r="I36" s="1" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="J36" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="K36" s="2" t="s">
         <v>3</v>
@@ -2054,16 +2166,16 @@
     </row>
     <row r="37" spans="1:11">
       <c r="A37" s="1" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="B37" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>32</v>
+        <v>104</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>9</v>
@@ -2076,10 +2188,10 @@
       </c>
       <c r="H37" s="1"/>
       <c r="I37" s="1" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="J37" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="K37" s="2" t="s">
         <v>3</v>
@@ -2087,16 +2199,16 @@
     </row>
     <row r="38" spans="1:11">
       <c r="A38" s="1" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="B38" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>33</v>
+        <v>105</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>9</v>
@@ -2109,10 +2221,10 @@
       </c>
       <c r="H38" s="1"/>
       <c r="I38" s="1" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="J38" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="K38" s="2" t="s">
         <v>3</v>
@@ -2120,16 +2232,16 @@
     </row>
     <row r="39" spans="1:11">
       <c r="A39" s="1" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="B39" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>34</v>
+        <v>106</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>9</v>
@@ -2142,10 +2254,10 @@
       </c>
       <c r="H39" s="1"/>
       <c r="I39" s="1" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="J39" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="K39" s="2" t="s">
         <v>3</v>
@@ -2153,16 +2265,16 @@
     </row>
     <row r="40" spans="1:11">
       <c r="A40" s="1" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="B40" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>35</v>
+        <v>107</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>9</v>
@@ -2175,10 +2287,10 @@
       </c>
       <c r="H40" s="1"/>
       <c r="I40" s="1" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="J40" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="K40" s="2" t="s">
         <v>3</v>
@@ -2186,16 +2298,16 @@
     </row>
     <row r="41" spans="1:11">
       <c r="A41" s="1" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="B41" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>36</v>
+        <v>108</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>9</v>
@@ -2208,10 +2320,10 @@
       </c>
       <c r="H41" s="1"/>
       <c r="I41" s="1" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="J41" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="K41" s="2" t="s">
         <v>3</v>
@@ -2219,16 +2331,16 @@
     </row>
     <row r="42" spans="1:11">
       <c r="A42" s="1" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="B42" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>37</v>
+        <v>109</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>9</v>
@@ -2241,10 +2353,10 @@
       </c>
       <c r="H42" s="1"/>
       <c r="I42" s="1" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="J42" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="K42" s="2" t="s">
         <v>3</v>
@@ -2252,16 +2364,16 @@
     </row>
     <row r="43" spans="1:11">
       <c r="A43" s="1" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="B43" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>38</v>
+        <v>110</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>9</v>
@@ -2274,10 +2386,10 @@
       </c>
       <c r="H43" s="1"/>
       <c r="I43" s="1" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="J43" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="K43" s="2" t="s">
         <v>3</v>
@@ -2285,16 +2397,16 @@
     </row>
     <row r="44" spans="1:11">
       <c r="A44" s="1" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="B44" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>39</v>
+        <v>111</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>9</v>
@@ -2307,10 +2419,10 @@
       </c>
       <c r="H44" s="1"/>
       <c r="I44" s="1" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="J44" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="K44" s="2" t="s">
         <v>3</v>
@@ -2318,16 +2430,16 @@
     </row>
     <row r="45" spans="1:11">
       <c r="A45" s="1" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="B45" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>40</v>
+        <v>112</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>9</v>
@@ -2340,10 +2452,10 @@
       </c>
       <c r="H45" s="1"/>
       <c r="I45" s="1" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="J45" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="K45" s="2" t="s">
         <v>3</v>
@@ -2351,16 +2463,16 @@
     </row>
     <row r="46" spans="1:11">
       <c r="A46" s="1" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="B46" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>41</v>
+        <v>113</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>9</v>
@@ -2373,10 +2485,10 @@
       </c>
       <c r="H46" s="1"/>
       <c r="I46" s="1" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="J46" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="K46" s="2" t="s">
         <v>3</v>
